--- a/biology/Microbiologie/Enterobacter/Enterobacter.xlsx
+++ b/biology/Microbiologie/Enterobacter/Enterobacter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enterobacter est un genre de bacilles Gram négatifs de la famille des Enterobacteriaceae. Son nom, composé du grec enteron (ἒντερον : intestin) et du néolatin bacter (petit bacille), peut se traduire par « petit bacille intestinal »[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enterobacter est un genre de bacilles Gram négatifs de la famille des Enterobacteriaceae. Son nom, composé du grec enteron (ἒντερον : intestin) et du néolatin bacter (petit bacille), peut se traduire par « petit bacille intestinal ».
 L'habitat est l'intestin de l'Homme et des animaux, Enterobacter est aussi trouvé dans les selles, les eaux d'égouts, le sol, les produits laitiers. Certaines souches du genre Enterobacter peuvent être responsables d'infections nosocomiales.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'en 2016 ce genre était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Enterobacter reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'en 2016 ce genre était rattaché par des critères phénotypiques à la famille des Enterobacteriaceae. Malgré la refonte de l'ordre des Enterobacterales par Adeolu et al. en 2016 à l'aide des techniques de phylogénétique moléculaire, Enterobacter reste dans la famille des Enterobacteriaceae dont le périmètre redéfini compte néanmoins beaucoup moins de genres qu'auparavant.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon la LPSN  (31 octobre 2022)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon la LPSN  (31 octobre 2022) :
 Enterobacter asburiae Brenner et al. 1988
 Enterobacter bugandensis Doijad et al. 2016
 Enterobacter cancerogenus (Urosevic 1966) Dickey &amp; Zumoff 1988
